--- a/Story_Mapping_E-Learning_System.xlsx
+++ b/Story_Mapping_E-Learning_System.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\E-Learning System\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="630" windowWidth="19635" windowHeight="7440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>E-Learning System</t>
   </si>
@@ -42,9 +47,6 @@
     <t>Faculty Registration</t>
   </si>
   <si>
-    <t>College Registration</t>
-  </si>
-  <si>
     <t>Student</t>
   </si>
   <si>
@@ -81,18 +83,6 @@
     <t>Online quiz</t>
   </si>
   <si>
-    <t>College</t>
-  </si>
-  <si>
-    <t>Add College Details</t>
-  </si>
-  <si>
-    <t>Add Student Details</t>
-  </si>
-  <si>
-    <t>Upload Study Materials</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -127,6 +117,33 @@
   </si>
   <si>
     <t>Delete Video Tutorials</t>
+  </si>
+  <si>
+    <t>View Student Details</t>
+  </si>
+  <si>
+    <t>View Quiz Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate Quiz Report </t>
+  </si>
+  <si>
+    <t>Update Students monthly attendance</t>
+  </si>
+  <si>
+    <t>View attendence</t>
+  </si>
+  <si>
+    <t>View Profile</t>
+  </si>
+  <si>
+    <t>Verify Notes &amp; Video Tutorials</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
   </si>
 </sst>
 </file>
@@ -169,12 +186,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -182,11 +196,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -235,7 +280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,7 +315,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,16 +524,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J44"/>
+  <dimension ref="A2:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
@@ -496,10 +541,12 @@
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -509,6 +556,8 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -556,165 +605,157 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>6</v>
+      <c r="D8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>7</v>
+      <c r="D9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
+      <c r="C21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>18</v>
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
+      <c r="C28" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>25</v>
+      <c r="C33" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>29</v>
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>33</v>
+      <c r="D41" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -722,19 +763,49 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>36</v>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="A2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
